--- a/Data/Temp/Reportes ventas Inconsistentes/042022.xlsx
+++ b/Data/Temp/Reportes ventas Inconsistentes/042022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\Reportes ventas Inconsistentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\Reportes ventas Inconsistentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2330" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-2325" windowWidth="19440" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencias Salesforce - Sateli" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="107">
   <si>
     <t>No. Recibo sin PCC</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>4744EDS3226</t>
+  </si>
+  <si>
+    <t>Gestionada</t>
   </si>
 </sst>
 </file>
@@ -761,25 +764,25 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.54296875" style="1"/>
+    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>5E+16</v>
       </c>
@@ -843,7 +846,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>5E+16</v>
       </c>
@@ -875,7 +878,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>5E+16</v>
       </c>
@@ -907,7 +910,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>5E+16</v>
       </c>
@@ -939,7 +942,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>20006335700</v>
       </c>
@@ -971,7 +974,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>20006335700</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>20006335701</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>20006335702</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -1067,7 +1070,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5215</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
@@ -1099,7 +1102,7 @@
         <v>44636.662499999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5216</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>44636.663194444445</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5217</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>44636.665972222225</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5218</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>44636.665972222225</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5219</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>44636.668055555558</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5221</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>44636.671527777777</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5222</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>44636.671527777777</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5223</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
@@ -1323,7 +1326,7 @@
         <v>44636.673611111109</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5224</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>44636.673611111109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5225</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>44636.675000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5228</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>44636.676388888889</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5230</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>26</v>
@@ -1451,7 +1454,7 @@
         <v>44636.679166666669</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5231</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>44636.680555555555</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5232</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>44636.680555555555</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5233</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>44636.682638888888</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5234</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>44636.682638888888</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5235</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>44636.684027777781</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5237</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>44636.68472222222</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5238</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>44636.68472222222</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5239</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>44636.686805555553</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4717</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>44636.69027777778</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4718</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>44636.693055555559</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4719</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>44636.693055555559</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4720</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>44636.696527777778</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4721</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>44636.696527777778</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4722</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>44636.697916666664</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>4723</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>44636.697916666664</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>4724</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>44636.699305555558</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4725</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>44636.699305555558</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1343</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1344</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1345</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1346</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1347</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>44636.709722222222</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1348</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>44636.710416666669</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1352</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1350</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1349</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1351</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1353</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>44636.941666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1354</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>44636.941666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1356</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>44636.947916666664</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1357</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>44636.953472222223</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1358</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>44636.953472222223</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>4731</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>44636.992361111108</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>4730</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>44636.992361111108</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>4728</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>44637.969444444447</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>4729</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>44637.969444444447</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>4733</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>44642.679861111108</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>4734</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>44642.6875</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>4735</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>44642.6875</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>4736</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>44642.693055555559</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>4737</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>44642.693055555559</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>4738</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>44642.695138888892</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>4739</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>44642.695833333331</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>4740</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>44642.696527777778</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>4741</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>44642.696527777778</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>4742</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>44642.698611111111</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4745</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>44642.71597222222</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>5344</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>44643.941666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>5346</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>44643.944444444445</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5347</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>44643.944444444445</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>5348</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>44643.946527777778</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>5349</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>44643.946527777778</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>5350</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>44643.948611111111</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5351</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>44643.949305555558</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5352</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>44643.949305555558</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>5353</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>44643.95208333333</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>5355</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>44643.952777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>5356</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>44643.952777777777</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>5357</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>44643.95416666667</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>5358</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>44643.95416666667</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>1.34E+20</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>4744</v>
       </c>
